--- a/grupos_investigacion.xlsx
+++ b/grupos_investigacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\DRIVE - JORGE DI.USS\DIRECCIÓN DE INVESTIGACIÓN\SISTEMAS JORGE DELGADO\Grupos pagína web\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC17ACE7-8C95-486E-8344-20221BBA4E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2656666C-E9EC-46B8-B72B-5A292D9D1ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>Grupo</t>
   </si>
   <si>
-    <t>Linea Investigacion</t>
-  </si>
-  <si>
     <t>Coordinador</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>Paredes Delgado, Sharon Soledad</t>
+  </si>
+  <si>
+    <t>Línea Investigación</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -719,30 +719,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6">
         <v>14</v>
@@ -750,16 +750,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6">
         <v>26</v>
@@ -767,16 +767,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6">
         <v>28</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6">
         <v>33</v>
@@ -801,16 +801,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6">
         <v>37</v>
@@ -818,16 +818,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6">
         <v>38</v>
@@ -835,16 +835,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6">
         <v>42</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6">
         <v>46</v>
@@ -869,16 +869,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6">
         <v>48</v>
@@ -886,16 +886,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6">
         <v>49</v>
@@ -903,16 +903,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="6">
         <v>52</v>
@@ -920,16 +920,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="6">
         <v>58</v>
@@ -937,16 +937,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6">
         <v>67</v>
@@ -954,16 +954,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6">
         <v>68</v>
@@ -971,16 +971,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="6">
         <v>71</v>
@@ -988,16 +988,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="6">
         <v>74</v>
@@ -1005,16 +1005,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6">
         <v>76</v>
@@ -1022,16 +1022,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="6">
         <v>81</v>
@@ -1039,16 +1039,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="6">
         <v>82</v>
@@ -1056,16 +1056,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6">
         <v>83</v>
@@ -1073,16 +1073,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="6">
         <v>84</v>
@@ -1090,16 +1090,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="6">
         <v>85</v>
@@ -1107,16 +1107,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="6">
         <v>86</v>
@@ -1124,16 +1124,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="6">
         <v>90</v>
@@ -1141,16 +1141,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="D26" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="6">
         <v>91</v>
@@ -1158,16 +1158,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="6">
         <v>92</v>
@@ -1175,16 +1175,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="6">
         <v>93</v>
@@ -1192,16 +1192,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="6">
         <v>96</v>
@@ -1209,16 +1209,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="6">
         <v>98</v>
@@ -1226,16 +1226,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="6">
         <v>99</v>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="6">
         <v>101</v>
@@ -1260,16 +1260,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="D33" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="6">
         <v>106</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="6">
         <v>108</v>
@@ -1294,16 +1294,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="6">
         <v>109</v>
@@ -1311,16 +1311,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" s="6">
         <v>110</v>
@@ -1328,16 +1328,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" s="6">
         <v>111</v>
@@ -1345,16 +1345,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="D38" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="6">
         <v>112</v>
@@ -1362,16 +1362,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="D39" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" s="6">
         <v>115</v>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" s="6">
         <v>116</v>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D41" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="6">
         <v>118</v>
@@ -1413,16 +1413,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D42" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="6">
         <v>119</v>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D43" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="6">
         <v>122</v>
@@ -1447,16 +1447,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="D44" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="6">
         <v>123</v>
@@ -1464,16 +1464,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="6">
         <v>124</v>
@@ -1481,16 +1481,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D46" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="6">
         <v>125</v>
@@ -1498,16 +1498,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D47" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="6">
         <v>126</v>
@@ -1515,16 +1515,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="6">
         <v>128</v>
@@ -1532,16 +1532,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" s="6">
         <v>129</v>
@@ -1549,16 +1549,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="D50" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="6">
         <v>131</v>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="D51" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="6">
         <v>133</v>
@@ -1583,16 +1583,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="D52" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" s="6">
         <v>136</v>
@@ -1600,16 +1600,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="D53" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="6">
         <v>140</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="D54" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="6">
         <v>141</v>

--- a/grupos_investigacion.xlsx
+++ b/grupos_investigacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\DRIVE - JORGE DI.USS\DIRECCIÓN DE INVESTIGACIÓN\SISTEMAS JORGE DELGADO\Grupos pagína web\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2656666C-E9EC-46B8-B72B-5A292D9D1ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60361DE1-E992-4B3A-B114-B9EF8B711512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Coordinador</t>
   </si>
   <si>
-    <t>Ver Ficha</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>Línea Investigación</t>
+  </si>
+  <si>
+    <t>Ficha</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -719,30 +719,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6">
         <v>14</v>
@@ -750,16 +750,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6">
         <v>26</v>
@@ -767,16 +767,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6">
         <v>28</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6">
         <v>33</v>
@@ -801,16 +801,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6">
         <v>37</v>
@@ -818,16 +818,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6">
         <v>38</v>
@@ -835,16 +835,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6">
         <v>42</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6">
         <v>46</v>
@@ -869,16 +869,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="6">
         <v>48</v>
@@ -886,16 +886,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6">
         <v>49</v>
@@ -903,16 +903,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="6">
         <v>52</v>
@@ -920,16 +920,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="6">
         <v>58</v>
@@ -937,16 +937,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="6">
         <v>67</v>
@@ -954,16 +954,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="6">
         <v>68</v>
@@ -971,16 +971,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="6">
         <v>71</v>
@@ -988,16 +988,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6">
         <v>74</v>
@@ -1005,16 +1005,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="6">
         <v>76</v>
@@ -1022,16 +1022,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="6">
         <v>81</v>
@@ -1039,16 +1039,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6">
         <v>82</v>
@@ -1056,16 +1056,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="6">
         <v>83</v>
@@ -1073,16 +1073,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="6">
         <v>84</v>
@@ -1090,16 +1090,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="6">
         <v>85</v>
@@ -1107,16 +1107,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="6">
         <v>86</v>
@@ -1124,16 +1124,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="6">
         <v>90</v>
@@ -1141,16 +1141,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D26" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="6">
         <v>91</v>
@@ -1158,16 +1158,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="6">
         <v>92</v>
@@ -1175,16 +1175,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="6">
         <v>93</v>
@@ -1192,16 +1192,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="6">
         <v>96</v>
@@ -1209,16 +1209,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="6">
         <v>98</v>
@@ -1226,16 +1226,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="6">
         <v>99</v>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="6">
         <v>101</v>
@@ -1260,16 +1260,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D33" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="6">
         <v>106</v>
@@ -1277,16 +1277,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="6">
         <v>108</v>
@@ -1294,16 +1294,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" s="6">
         <v>109</v>
@@ -1311,16 +1311,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="6">
         <v>110</v>
@@ -1328,16 +1328,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="6">
         <v>111</v>
@@ -1345,16 +1345,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="D38" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="6">
         <v>112</v>
@@ -1362,16 +1362,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D39" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="6">
         <v>115</v>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="6">
         <v>116</v>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D41" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" s="6">
         <v>118</v>
@@ -1413,16 +1413,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="D42" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="6">
         <v>119</v>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="D43" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="6">
         <v>122</v>
@@ -1447,16 +1447,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D44" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="6">
         <v>123</v>
@@ -1464,16 +1464,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="6">
         <v>124</v>
@@ -1481,16 +1481,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D46" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="6">
         <v>125</v>
@@ -1498,16 +1498,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D47" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="6">
         <v>126</v>
@@ -1515,16 +1515,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" s="6">
         <v>128</v>
@@ -1532,16 +1532,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="6">
         <v>129</v>
@@ -1549,16 +1549,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="D50" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" s="6">
         <v>131</v>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="D51" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="6">
         <v>133</v>
@@ -1583,16 +1583,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="D52" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" s="6">
         <v>136</v>
@@ -1600,16 +1600,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="D53" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="6">
         <v>140</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D54" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="6">
         <v>141</v>
